--- a/example data/EXAMPLE_scale-definitions_multi_UN-SDG.xlsx
+++ b/example data/EXAMPLE_scale-definitions_multi_UN-SDG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Dropbox\python-projects\compost-tp\github docs\example data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\value-dimension-analysis-for-design-process\example data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F3FB15-2E64-4AAC-B05E-5A4D11B1CD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE83CA-335E-4B96-87AC-7C5142B7AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="3864" windowWidth="17592" windowHeight="8892" xr2:uid="{42D28C09-D715-4881-9C3E-C3FC8B40E215}"/>
+    <workbookView xWindow="1740" yWindow="855" windowWidth="24900" windowHeight="13995" xr2:uid="{42D28C09-D715-4881-9C3E-C3FC8B40E215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>scale_point</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Partnerships for the Goals</t>
+  </si>
+  <si>
+    <t>highest potential for addressing the respective sustainable development goal</t>
   </si>
 </sst>
 </file>
@@ -476,17 +479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D99CCC-ED7B-4B10-9AD9-B2906C78E768}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -598,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -620,7 +623,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -642,7 +645,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -686,7 +689,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -708,7 +711,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -730,7 +733,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -774,60 +777,60 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
